--- a/Descargas/R15_10º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Diciembre.xlsx
+++ b/Descargas/R15_10º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Diciembre.xlsx
@@ -741,7 +741,7 @@
         </is>
       </c>
       <c r="B54" s="65">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
